--- a/data/data_v3.xlsx
+++ b/data/data_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/lukas_birkenmaier_gesis_org/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gesisev-my.sharepoint.com/personal/felix_bergstein_gesis_org/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{A39013A1-3599-7543-B2CE-25EFE47C5989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47F2E3EF-F85A-4C3C-AF38-42625277FCD9}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="8_{38E0602A-207A-4EFD-8FCA-2D595ACCFFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC6EC69F-6B7A-46B8-A151-8A1263CC8683}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{90AF7E79-4508-4965-A205-E04DABF623D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{90AF7E79-4508-4965-A205-E04DABF623D1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="406">
   <si>
     <t>id</t>
   </si>
@@ -446,9 +446,6 @@
     <t>Managing Data Quality in a Statistical Agency</t>
   </si>
   <si>
-    <t>Brackstone, G.</t>
-  </si>
-  <si>
     <t>https://www150.statcan.gc.ca/n1/pub/12-001-x/1999002/article/4877-eng.pdf</t>
   </si>
   <si>
@@ -458,9 +455,6 @@
     <t>Visualisation of Spatial Data Quality for Distributed GIS</t>
   </si>
   <si>
-    <t>Yang, T.</t>
-  </si>
-  <si>
     <t>Type: Thesis</t>
   </si>
   <si>
@@ -473,9 +467,6 @@
     <t>Elements of Spatial Data Quality</t>
   </si>
   <si>
-    <t>Guptill, S.C.; Morrison, J.L.</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/book/9780080424323/elements-of-spatial-data-quality</t>
   </si>
   <si>
@@ -488,9 +479,6 @@
     <t>Photogrammetric Engineering &amp; Remote Sensing</t>
   </si>
   <si>
-    <t>Devillers, R; Bédard, Y; Jeansoulin, R</t>
-  </si>
-  <si>
     <t>https://doi.org/10.14358/PERS.71.2.205</t>
   </si>
   <si>
@@ -653,9 +641,6 @@
     <t>Total Survey Error in Practice</t>
   </si>
   <si>
-    <t>Hsieh, YP; Murphy, J.</t>
-  </si>
-  <si>
     <t>http://doi.wiley.com/10.1002/9781119041702.ch2</t>
   </si>
   <si>
@@ -671,9 +656,6 @@
     <t>Survey research began as a very practical enterprise, gathering facts and opinions from a large number of respondents, but with little underlying theory. As will be shown in this chapter, the ‘Total Survey Error’ approach (TSE) has been devised as an inclusive paradigm for survey research to guide the design of surveys, critiques of survey results, and instruction about the survey process. This chapter will review the TSE approach and place it within the broader concern for achieving a ‘Total Survey Quality’ (TSQ) product.</t>
   </si>
   <si>
-    <t>Lyberg, L; Weisberg, H</t>
-  </si>
-  <si>
     <t>https://dx.doi.org/10.4135/9781473957893.n3</t>
   </si>
   <si>
@@ -707,9 +689,6 @@
     <t>While Big Data offers a potentially less expensive, less burdensome, and more timely alternative to survey data for producing a variety of statistics, it is not without error. The AAPOR Task Force on Big Data and others have called for researchers to evaluate the quality of Big Data using an approach similar to the total survey error (TSE) framework. However, differences in the construction of, access to, and overall data structure between survey data and Big Data make application of TSE difficult. In this article, we seek to develop the Total Error Framework (TEF), an extension of the TSE framework, to be (1) more inclusive and applicable to many types of Big Data, (2) comprehensive in that it considers “total” error, and (3) unified in that it allows researchers to compare errors in Big Data to errors in survey data. After outlining this framework, we then illustrate an application of TEF by comparing error in housing unit area (square footage) estimates collected in a survey (the 2015 Residential Energy Consumption Survey [RECS]) to those estimates found in three Big Data databases (Zillow.com, Acxiom, and CoreLogic).</t>
   </si>
   <si>
-    <t>Amaya, A; Biemer, PP; Kinyon, D</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1093/jssam/smz056</t>
   </si>
   <si>
@@ -797,9 +776,6 @@
     <t>Proceedings of the Eighth International AAAI Conference on Weblogs and Social Media</t>
   </si>
   <si>
-    <t>Tufekci, Z.</t>
-  </si>
-  <si>
     <t>https://www.aaai.org/ocs/index.php/ICWSM/ICWSM14/paper/viewPaper/8062</t>
   </si>
   <si>
@@ -815,9 +791,6 @@
     <t>Data quality has become an area of increasing concern in marketing research. Methods of collecting data, types of data analyzed, and data analytics techniques have changed substantially in recent years. It is important, therefore, to examine the current state of marketing research, and particularly self-administered questionnaires. This paper provides researchers important advice and rules of thumb for crafting high quality research in light of the contemporary changes occuring in modern marketing data collection practices. This is accomplished by a proposed six-step research design process that ensures data quality, and ultimately research integrity, are established and maintained throughout the research process—from the earliest conceptualization and design phases, through data collection, and ultimately the reporting of results. This paper provides a framework, which if followed, will result in reduced headaches for researchers and more robust results for decision makers.</t>
   </si>
   <si>
-    <t>Moore, Z; Harrison, DE; Hair, J</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1177/14707853211052183</t>
   </si>
   <si>
@@ -830,9 +803,6 @@
     <t>American Journal of Health-System Pharmacy</t>
   </si>
   <si>
-    <t>Kimberlin, CL; Winterstein, AG</t>
-  </si>
-  <si>
     <t>https://doi.org/10.2146/ajhp070364</t>
   </si>
   <si>
@@ -845,9 +815,6 @@
     <t>Future Generation Computer Systems</t>
   </si>
   <si>
-    <t>Merino, J; Caballero, I; Rivas, B; Serrano, M; Piattini, M</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1016/j.future.2015.11.024</t>
   </si>
   <si>
@@ -860,9 +827,6 @@
     <t>Malaysian Journal of Computer Science</t>
   </si>
   <si>
-    <t>Ijab, MT; Surin, ESM; Nayan, NM</t>
-  </si>
-  <si>
     <t>https://doi.org/10.22452/mjcs.sp2019no1.2</t>
   </si>
   <si>
@@ -963,9 +927,6 @@
   </si>
   <si>
     <t>In advanced economies, knowledge management and organizational learning are key assets for fostering innovation, long-term competitive advantage and sustainable development. And, while learning, knowledge creation, sharing and application depends on organizational infrastructure, those processes are also to large extent affected by socio- cultural factors – shared values, beliefs and attitudes – that shape individual and organizational behaviours, processes and practices. Cultural factors can be innovation enablers encouraging cooperation, teamwork and creativity, on the other hand excessively hierarchical or competitive cultures can work against innovation. Similarly, predominant organizational values and beliefs may promote or hinder capacity for creating, sharing, and applying knowledge.</t>
-  </si>
-  <si>
-    <t>Jesilevska, S; Skiltere, D; Univ Latvia</t>
   </si>
   <si>
     <t>https://dspace.lu.lv/dspace/bitstream/handle/7/37260/9th_NCEBD_conference_proceedings.pdf?sequence=5&amp;isAllowed=y#page=240</t>
@@ -1060,9 +1021,6 @@
   </si>
   <si>
     <t>Daas, Piet J.H; Arends-Tóth, Judit; Schouten, Barry; Kuijvenhoven, Léander</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>article{bergdahl2007handbook,
@@ -1420,6 +1378,379 @@
   </si>
   <si>
     <t>Lukyanenko, Roman; Parsons, Jeffrey; Wiersma, Yolanda; Maddah, Mahed</t>
+  </si>
+  <si>
+    <t>article{grunewald2004data,
+  title={DATA QUALITY: AComparison OF IMF’S DATA QUALITY ASSESSMENT FRAMEWORK (DQAF) AND EUROSTAT’S QUALITY DEFINITION},
+  author={Gr{\"u}newald, Werner and Probst, Laurent},
+  year={2004},
+  publisher={Citeseer}
+}</t>
+  </si>
+  <si>
+    <t>article{brackstone1999managing,
+  title={Managing data quality in a statistical agency},
+  author={Brackstone, Gordon},
+  journal={Survey methodology},
+  volume={25},
+  number={2},
+  pages={139--150},
+  year={1999},
+  publisher={Citeseer}
+}</t>
+  </si>
+  <si>
+    <t>phdthesis{yang2007visualisation,
+  title={Visualisation of spatial data quality for distributed GIS},
+  author={Yang, Ting},
+  year={2007},
+  school={UNSW Sydney}
+}</t>
+  </si>
+  <si>
+    <t>book{guptill2013elements,
+  title={Elements of spatial data quality},
+  author={Guptill, Stephen C and Morrison, Joel L},
+  year={2013},
+  publisher={Elsevier}
+}</t>
+  </si>
+  <si>
+    <t>article{devillers2005multidimensional,
+  title={Multidimensional management of geospatial data quality information for its dynamic use within GIS},
+  author={Devillers, Rodolphe and B{\'e}dard, Yvan and Jeansoulin, Robert},
+  journal={Photogrammetric Engineering \&amp; Remote Sensing},
+  volume={71},
+  number={2},
+  pages={205--215},
+  year={2005},
+  publisher={American Society for Photogrammetry and Remote Sensing}
+}</t>
+  </si>
+  <si>
+    <t>book{laitila2011quality,
+  title={Quality assessment of administrative data},
+  author={Laitila, Thomas and Wallgren, Anders and Wallgren, Britt},
+  year={2011},
+  publisher={Statistiska centralbyr{\aa}n}
+}</t>
+  </si>
+  <si>
+    <t>article{biemer2014system,
+  title={A system for managing the quality of official statistics},
+  author={Biemer, Paul and Trewin, Dennis and Bergdahl, Heather and Japec, Lilli},
+  journal={Journal of Official Statistics},
+  volume={30},
+  number={3},
+  pages={381--415},
+  year={2014},
+  publisher={SAGE Publications Sage UK: London, England}
+}</t>
+  </si>
+  <si>
+    <t>article{herzog2007data,
+  title={What is data quality and why should we care?},
+  author={Herzog, Thomas N and Scheuren, Fritz J and Winkler, William E and Herzog, Thomas N and Scheuren, Fritz J and Winkler, William E},
+  journal={Data quality and record linkage techniques},
+  pages={7--15},
+  year={2007},
+  publisher={Springer}
+}</t>
+  </si>
+  <si>
+    <t>article{biemer2010total,
+  title={Total survey error: Design, implementation, and evaluation},
+  author={Biemer, Paul P},
+  journal={Public opinion quarterly},
+  volume={74},
+  number={5},
+  pages={817--848},
+  year={2010},
+  publisher={Oxford University Press}
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{agarwal2010information,
+  title={Information quality challenges in social media.},
+  author={Agarwal, Nitin and Yiliyasi, Yusuf},
+  booktitle={ICIQ},
+  year={2010}
+}</t>
+  </si>
+  <si>
+    <t>article{batini2009methodologies,
+  title={Methodologies for data quality assessment and improvement},
+  author={Batini, Carlo and Cappiello, Cinzia and Francalanci, Chiara and Maurino, Andrea},
+  journal={ACM computing surveys (CSUR)},
+  volume={41},
+  number={3},
+  pages={1--52},
+  year={2009},
+  publisher={ACM New York, NY, USA}
+}</t>
+  </si>
+  <si>
+    <t>article{hurtado2022documents,
+  title={From documents to data: A framework for total corpus quality},
+  author={Hurtado Bodell, Miriam and Magnusson, M{\aa}ns and M{\"u}tzel, Sophie},
+  journal={Socius},
+  volume={8},
+  pages={23780231221135523},
+  year={2022},
+  publisher={Sage Publications Sage CA: Los Angeles, CA}
+}</t>
+  </si>
+  <si>
+    <t>article{bosch2022survey,
+  title={When survey science met web tracking: Presenting an error framework for metered data},
+  author={Bosch, Oriol J and Revilla, Melanie},
+  journal={Journal of the Royal Statistical Society: Series A (Statistics in Society)},
+  volume={185},
+  pages={S408--S436},
+  year={2022},
+  publisher={Wiley Online Library}
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{emamjome2013information,
+  title={Information quality in social media: a conceptual model},
+  author={Emamjome, Fahame and Rabaa'i, Ahmad and Gable, Guy and Bandara, Wasana},
+  booktitle={Proceedings of the 17th Pacific Asia Conference on Information Systems (PACIS)},
+  pages={1--12},
+  year={2013},
+  organization={Association for Information Systems (AIS)}
+}</t>
+  </si>
+  <si>
+    <t>article{hsieh2017total,
+  title={Total Twitter error: decomposing public opinion measurement on Twitter from a total survey error perspective},
+  author={Hsieh, Yuli Patrick and Murphy, Joe},
+  journal={Total survey error in practice},
+  pages={23--46},
+  year={2017},
+  publisher={Wiley Online Library}
+}</t>
+  </si>
+  <si>
+    <t>article{lyberg2016total,
+  title={Total survey error: A paradigm for survey methodology},
+  author={Lyberg, Lars E and Weisberg, H},
+  journal={The SAGE handbook of survey methodology},
+  volume={10},
+  number={9781473957893},
+  pages={n3},
+  year={2016},
+  publisher={Sage Thousand Oaks, CA}
+}</t>
+  </si>
+  <si>
+    <t>article{olteanu2019social,
+  title={Social data: Biases, methodological pitfalls, and ethical boundaries},
+  author={Olteanu, Alexandra and Castillo, Carlos and Diaz, Fernando and K{\i}c{\i}man, Emre},
+  journal={Frontiers in big data},
+  volume={2},
+  pages={13},
+  year={2019},
+  publisher={Frontiers Media SA}
+}</t>
+  </si>
+  <si>
+    <t>article{amaya2020total,
+  title={Total error in a big data world: adapting the TSE framework to big data},
+  author={Amaya, Ashley and Biemer, Paul P and Kinyon, David},
+  journal={Journal of Survey Statistics and Methodology},
+  volume={8},
+  number={1},
+  pages={89--119},
+  year={2020},
+  publisher={Oxford University Press}
+}</t>
+  </si>
+  <si>
+    <t>article{japec2015big,
+  title={Big data in survey research: AAPOR task force report},
+  author={Japec, Lilli and Kreuter, Frauke and Berg, Marcus and Biemer, Paul and Decker, Paul and Lampe, Cliff and Lane, Julia and O’Neil, Cathy and Usher, Abe},
+  journal={Public Opinion Quarterly},
+  volume={79},
+  number={4},
+  pages={839--880},
+  year={2015},
+  publisher={Oxford University Press US}
+}</t>
+  </si>
+  <si>
+    <t>article{schmitz2022data,
+  title={Data quality of digital process data: A generalized framework and simulation/post-hoc identification strategy},
+  author={Schmitz, Andreas and Riebling, Jan R},
+  journal={KZfSS K{\"o}lner Zeitschrift f{\"u}r Soziologie und Sozialpsychologie},
+  volume={74},
+  number={Suppl 1},
+  pages={407--430},
+  year={2022},
+  publisher={Springer}
+}</t>
+  </si>
+  <si>
+    <t>article{sen2021total,
+  title={A total error framework for digital traces of human behavior on online platforms},
+  author={Sen, Indira and Fl{\"o}ck, Fabian and Weller, Katrin and Wei{\ss}, Bernd and Wagner, Claudia},
+  journal={Public Opinion Quarterly},
+  volume={85},
+  number={S1},
+  pages={399--422},
+  year={2021},
+  publisher={Oxford University Press}
+}</t>
+  </si>
+  <si>
+    <t>article{groves2010total,
+  title={Total survey error: Past, present, and future},
+  author={Groves, Robert M and Lyberg, Lars},
+  journal={Public opinion quarterly},
+  volume={74},
+  number={5},
+  pages={849--879},
+  year={2010},
+  publisher={Oxford University Press}
+}</t>
+  </si>
+  <si>
+    <t>article{graeff2020digital,
+  title={Digital Data, Administrative Data, and Survey Compared},
+  author={Graeff, Peter and Baur, Nina},
+  journal={Historical Social Research/Historische Sozialforschung},
+  volume={45},
+  number={3},
+  pages={244--269},
+  year={2020},
+  publisher={JSTOR}
+}</t>
+  </si>
+  <si>
+    <t>article{moore2021data,
+  title={Data quality assurance begins before data collection and never ends: What marketing researchers absolutely need to remember},
+  author={Moore, Zachary and Harrison, Dana E and Hair, Joe},
+  journal={International Journal of Market Research},
+  volume={63},
+  number={6},
+  pages={693--714},
+  year={2021},
+  publisher={SAGE Publications Sage UK: London, England}
+}</t>
+  </si>
+  <si>
+    <t>article{kimberlin2008validity,
+  title={Validity and reliability of measurement instruments used in research},
+  author={Kimberlin, Carole L and Winterstein, Almut G},
+  journal={American journal of health-system pharmacy},
+  volume={65},
+  number={23},
+  pages={2276--2284},
+  year={2008},
+  publisher={Oxford University Press}
+}</t>
+  </si>
+  <si>
+    <t>article{merino2016data,
+  title={A data quality in use model for big data},
+  author={Merino, Jorge and Caballero, Ismael and Rivas, Bibiano and Serrano, Manuel and Piattini, Mario},
+  journal={Future Generation Computer Systems},
+  volume={63},
+  pages={123--130},
+  year={2016},
+  publisher={Elsevier}
+}</t>
+  </si>
+  <si>
+    <t>article{ijab2019conceptualizing,
+  title={Conceptualizing big data quality framework from a systematic literature review perspective},
+  author={Ijab, Mohamad Taha and Surin, Ely Salwana Mat and Nayan, Norshita Mat},
+  journal={Malaysian Journal of Computer Science},
+  pages={25--37},
+  year={2019}
+}</t>
+  </si>
+  <si>
+    <t>inproceedings{tufekci2014big,
+  title={Big questions for social media big data: Representativeness, validity and other methodological pitfalls},
+  author={Tufekci, Zeynep},
+  booktitle={Proceedings of the international AAAI conference on web and social media},
+  volume={8},
+  number={1},
+  pages={505--514},
+  year={2014}
+}</t>
+  </si>
+  <si>
+    <t>article{dufty2014suggested,
+  title={A suggested framework for the quality of big data},
+  author={Dufty, David and B{\'e}rard, Helene and Lefranc, Sylvie and Signore, Marina},
+  journal={UNECE big data quality task team},
+  year={2014}
+}</t>
+  </si>
+  <si>
+    <t>article{jesilevska2017analysis,
+  title={Analysis of deficiencies of data quality dimensions},
+  author={Jesilevska, Svetlana and Skiltere, Daina},
+  journal={New Challenges of Economic and Business Development--2017 Digital Economy},
+  pages={236--246},
+  year={2017}
+}</t>
+  </si>
+  <si>
+    <t>Lyberg, Lars E; Weisberg, Herbert F</t>
+  </si>
+  <si>
+    <t>Hsieh, Yuli P; Murphy, Joe</t>
+  </si>
+  <si>
+    <t>Amaya, Ashley; Biemer, Paul P; Kinyon, David</t>
+  </si>
+  <si>
+    <t>Tufekci, Zeynep</t>
+  </si>
+  <si>
+    <t>Moore, Zachary; Harrison, Dana E; Hair, Joe</t>
+  </si>
+  <si>
+    <t>Kimberlin, Carole L; Winterstein, Almut G</t>
+  </si>
+  <si>
+    <t>Merino, Jorge; Caballero, Ismael; Rivas, Bibiano; Serrano, Manuel; Piattini, Mario</t>
+  </si>
+  <si>
+    <t>Ijab, Mohamad T; Surin, Ely S M; Nayan, Norshita M</t>
+  </si>
+  <si>
+    <t>Jesilevska, Svetlana; Skiltere, Diana</t>
+  </si>
+  <si>
+    <t>Brackstone, Gordon</t>
+  </si>
+  <si>
+    <t>Yang, Ting</t>
+  </si>
+  <si>
+    <t>Guptill, Stephen C.; Morrison, Joel L</t>
+  </si>
+  <si>
+    <t>Devillers, Rodolphe; Bédard, Yvan; Jeansoulin, Robert</t>
+  </si>
+  <si>
+    <t>book{book,
+title = {Guidance for Data Quality Assessment: Practical Methods for Data Analysis},
+author = {EPA (Environ. Prot. Agency)},
+year = {2000}
+}</t>
+  </si>
+  <si>
+    <t>misc{statistics2019statistics,
+title = {Statistics Canada Quality Guidelines},
+author = {Statistics Canada},
+year = {2019}, 
+publisher = {Statistics Canada}
+}</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1774,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1468,6 +1799,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1482,7 +1819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1494,6 +1831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{2603A153-88A8-4496-B097-21C66AEE0D7B}"/>
@@ -1825,22 +2163,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D549CBA-E956-424D-BCFF-88ADE90B249A}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="26" max="26" width="40" customWidth="1"/>
-    <col min="27" max="27" width="99.5" customWidth="1"/>
+    <col min="27" max="27" width="99.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +2259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="211.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="211.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1934,7 +2273,7 @@
         <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1997,16 +2336,16 @@
         <v>0</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="260.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="260.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -2018,7 +2357,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -2078,11 +2417,11 @@
         <v>1</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="176" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2093,7 +2432,7 @@
         <v>1965</v>
       </c>
       <c r="D4" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -2159,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2173,13 +2512,13 @@
         <v>2009</v>
       </c>
       <c r="D5" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -2239,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="208" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2259,7 +2598,7 @@
         <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
@@ -2319,10 +2658,10 @@
         <v>0</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2399,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -2476,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2490,10 +2829,10 @@
         <v>2007</v>
       </c>
       <c r="D9" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="G9" t="s">
         <v>58</v>
@@ -2553,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="304" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="300" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -2570,10 +2909,10 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -2633,11 +2972,11 @@
         <v>0</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" ht="128" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -2654,7 +2993,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -2714,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="192" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="195" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -2728,13 +3067,13 @@
         <v>1992</v>
       </c>
       <c r="D12" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="E12" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -2794,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="224" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="240" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2814,7 +3153,7 @@
         <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -2874,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="176" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -2888,10 +3227,10 @@
         <v>2012</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E14" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -2954,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="288" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="285" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -2974,7 +3313,7 @@
         <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -3034,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="256" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="285" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -3114,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="192" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -3131,10 +3470,10 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F17" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -3194,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="176" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="210" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -3211,7 +3550,7 @@
         <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -3271,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -3290,7 +3629,7 @@
       <c r="G19" t="s">
         <v>58</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="5" t="s">
         <v>110</v>
       </c>
       <c r="I19" s="1">
@@ -3344,8 +3683,11 @@
       <c r="Y19">
         <v>0</v>
       </c>
+      <c r="Z19" s="4" t="s">
+        <v>389</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" ht="128" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3367,7 +3709,7 @@
       <c r="G20" t="s">
         <v>58</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="5" t="s">
         <v>116</v>
       </c>
       <c r="I20" s="1">
@@ -3422,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="Z20" s="4" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>117</v>
       </c>
@@ -3444,7 +3786,7 @@
       <c r="G21" t="s">
         <v>58</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="5" t="s">
         <v>121</v>
       </c>
       <c r="I21" s="1">
@@ -3498,8 +3840,11 @@
       <c r="Y21">
         <v>0</v>
       </c>
+      <c r="Z21" s="4" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -3518,7 +3863,7 @@
       <c r="G22" t="s">
         <v>58</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>126</v>
       </c>
       <c r="I22" s="1">
@@ -3572,8 +3917,11 @@
       <c r="Y22">
         <v>1</v>
       </c>
+      <c r="Z22" s="4" t="s">
+        <v>404</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="165" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -3586,14 +3934,14 @@
       <c r="D23" t="s">
         <v>45</v>
       </c>
-      <c r="F23" t="s">
-        <v>129</v>
+      <c r="F23" s="7" t="s">
+        <v>400</v>
       </c>
       <c r="G23" t="s">
         <v>30</v>
       </c>
-      <c r="H23" t="s">
-        <v>130</v>
+      <c r="H23" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -3646,25 +3994,28 @@
       <c r="Y23">
         <v>0</v>
       </c>
+      <c r="Z23" s="4" t="s">
+        <v>362</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
         <v>131</v>
-      </c>
-      <c r="B24" t="s">
-        <v>132</v>
       </c>
       <c r="C24">
         <v>2007</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G24" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="G24" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" t="s">
-        <v>135</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -3717,25 +4068,28 @@
       <c r="Y24">
         <v>0</v>
       </c>
+      <c r="Z24" s="4" t="s">
+        <v>363</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25">
         <v>1995</v>
       </c>
-      <c r="F25" t="s">
-        <v>138</v>
+      <c r="F25" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="G25" t="s">
         <v>42</v>
       </c>
-      <c r="H25" t="s">
-        <v>139</v>
+      <c r="H25" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -3788,28 +4142,31 @@
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="Z25" s="4" t="s">
+        <v>364</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="225" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C26">
         <v>2005</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F26" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>403</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
       </c>
-      <c r="H26" t="s">
-        <v>144</v>
+      <c r="H26" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -3862,28 +4219,31 @@
       <c r="Y26">
         <v>0</v>
       </c>
+      <c r="Z26" s="4" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C27">
         <v>2011</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
         <v>58</v>
       </c>
-      <c r="H27" t="s">
-        <v>149</v>
+      <c r="H27" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="I27" s="1">
         <v>0</v>
@@ -3936,31 +4296,34 @@
       <c r="Y27">
         <v>1</v>
       </c>
+      <c r="Z27" s="4" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="195" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C28">
         <v>2014</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I28" s="1">
         <v>0</v>
@@ -4013,28 +4376,31 @@
       <c r="Y28">
         <v>1</v>
       </c>
+      <c r="Z28" s="4" t="s">
+        <v>367</v>
+      </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="195" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C29">
         <v>2007</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
       </c>
-      <c r="H29" t="s">
-        <v>160</v>
+      <c r="H29" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -4087,31 +4453,34 @@
       <c r="Y29">
         <v>0</v>
       </c>
+      <c r="Z29" s="4" t="s">
+        <v>368</v>
+      </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C30">
         <v>2010</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
       </c>
-      <c r="H30" t="s">
-        <v>166</v>
+      <c r="H30" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="I30" s="1">
         <v>0</v>
@@ -4164,28 +4533,31 @@
       <c r="Y30">
         <v>0</v>
       </c>
+      <c r="Z30" s="4" t="s">
+        <v>369</v>
+      </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C31">
         <v>2010</v>
       </c>
       <c r="D31" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
       </c>
-      <c r="H31" t="s">
-        <v>171</v>
+      <c r="H31" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -4238,28 +4610,31 @@
       <c r="Y31">
         <v>0</v>
       </c>
+      <c r="Z31" s="4" t="s">
+        <v>370</v>
+      </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="195" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C32">
         <v>2009</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
       </c>
-      <c r="H32" t="s">
-        <v>176</v>
+      <c r="H32" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -4312,31 +4687,34 @@
       <c r="Y32">
         <v>0</v>
       </c>
+      <c r="Z32" s="4" t="s">
+        <v>371</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="195" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C33">
         <v>2022</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
       </c>
-      <c r="H33" t="s">
-        <v>182</v>
+      <c r="H33" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -4389,31 +4767,34 @@
       <c r="Y33">
         <v>0</v>
       </c>
+      <c r="Z33" s="4" t="s">
+        <v>372</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="195" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C34">
         <v>2022</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
       </c>
-      <c r="H34" t="s">
-        <v>188</v>
+      <c r="H34" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
@@ -4466,31 +4847,34 @@
       <c r="Y34">
         <v>1</v>
       </c>
+      <c r="Z34" s="4" t="s">
+        <v>373</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="225" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C35">
         <v>2013</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G35" t="s">
         <v>52</v>
       </c>
-      <c r="H35" t="s">
-        <v>194</v>
+      <c r="H35" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -4543,28 +4927,31 @@
       <c r="Y35">
         <v>0</v>
       </c>
+      <c r="Z35" s="4" t="s">
+        <v>374</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C36">
         <v>2017</v>
       </c>
       <c r="D36" t="s">
-        <v>197</v>
-      </c>
-      <c r="F36" t="s">
-        <v>198</v>
+        <v>193</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>392</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
       </c>
-      <c r="H36" t="s">
-        <v>199</v>
+      <c r="H36" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="I36" s="1">
         <v>0</v>
@@ -4617,31 +5004,34 @@
       <c r="Y36">
         <v>1</v>
       </c>
+      <c r="Z36" s="4" t="s">
+        <v>375</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C37">
         <v>2016</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>391</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
       </c>
-      <c r="H37" t="s">
-        <v>205</v>
+      <c r="H37" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="I37" s="1">
         <v>0</v>
@@ -4694,31 +5084,34 @@
       <c r="Y37">
         <v>0</v>
       </c>
+      <c r="Z37" s="4" t="s">
+        <v>376</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C38">
         <v>2019</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G38" t="s">
         <v>30</v>
       </c>
-      <c r="H38" t="s">
-        <v>211</v>
+      <c r="H38" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="I38" s="1">
         <v>0</v>
@@ -4771,31 +5164,34 @@
       <c r="Y38">
         <v>0</v>
       </c>
+      <c r="Z38" s="4" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="195" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C39">
         <v>2020</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
-      </c>
-      <c r="F39" t="s">
-        <v>216</v>
+        <v>209</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="G39" t="s">
         <v>30</v>
       </c>
-      <c r="H39" t="s">
-        <v>217</v>
+      <c r="H39" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
@@ -4848,28 +5244,31 @@
       <c r="Y39">
         <v>1</v>
       </c>
+      <c r="Z39" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C40">
         <v>2015</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F40" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
       </c>
-      <c r="H40" t="s">
-        <v>221</v>
+      <c r="H40" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
@@ -4922,28 +5321,31 @@
       <c r="Y40">
         <v>0</v>
       </c>
+      <c r="Z40" s="4" t="s">
+        <v>379</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="225" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C41">
         <v>2022</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
       </c>
-      <c r="H41" t="s">
-        <v>226</v>
+      <c r="H41" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
@@ -4996,31 +5398,34 @@
       <c r="Y41">
         <v>0</v>
       </c>
+      <c r="Z41" s="4" t="s">
+        <v>380</v>
+      </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="210" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C42">
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F42" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G42" t="s">
         <v>30</v>
       </c>
-      <c r="H42" t="s">
-        <v>231</v>
+      <c r="H42" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -5073,31 +5478,34 @@
       <c r="Y42">
         <v>1</v>
       </c>
+      <c r="Z42" s="4" t="s">
+        <v>381</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="180" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C43">
         <v>2010</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F43" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G43" t="s">
         <v>30</v>
       </c>
-      <c r="H43" t="s">
-        <v>236</v>
+      <c r="H43" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
@@ -5150,31 +5558,34 @@
       <c r="Y43">
         <v>0</v>
       </c>
+      <c r="Z43" s="4" t="s">
+        <v>382</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="180" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C44">
         <v>2020</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E44" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F44" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G44" t="s">
         <v>30</v>
       </c>
-      <c r="H44" t="s">
-        <v>242</v>
+      <c r="H44" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -5227,28 +5638,31 @@
       <c r="Y44">
         <v>1</v>
       </c>
+      <c r="Z44" s="4" t="s">
+        <v>383</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="195" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C45">
         <v>2014</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
-      </c>
-      <c r="F45" t="s">
-        <v>246</v>
+        <v>238</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="G45" t="s">
         <v>52</v>
       </c>
-      <c r="H45" t="s">
-        <v>247</v>
+      <c r="H45" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -5301,31 +5715,34 @@
       <c r="Y45">
         <v>0</v>
       </c>
+      <c r="Z45" s="4" t="s">
+        <v>388</v>
+      </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="240" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C46">
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E46" t="s">
-        <v>251</v>
-      </c>
-      <c r="F46" t="s">
-        <v>252</v>
+        <v>243</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
       </c>
-      <c r="H46" t="s">
-        <v>253</v>
+      <c r="H46" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
@@ -5378,28 +5795,31 @@
       <c r="Y46">
         <v>0</v>
       </c>
+      <c r="Z46" s="4" t="s">
+        <v>384</v>
+      </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="210" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C47">
         <v>2008</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
-      </c>
-      <c r="F47" t="s">
-        <v>257</v>
+        <v>247</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
       </c>
-      <c r="H47" t="s">
-        <v>258</v>
+      <c r="H47" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
@@ -5452,28 +5872,31 @@
       <c r="Y47">
         <v>0</v>
       </c>
+      <c r="Z47" s="4" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="195" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C48">
         <v>2016</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
-      </c>
-      <c r="F48" t="s">
-        <v>262</v>
+        <v>251</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
       </c>
-      <c r="H48" t="s">
-        <v>263</v>
+      <c r="H48" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="I48" s="1">
         <v>1</v>
@@ -5526,28 +5949,31 @@
       <c r="Y48">
         <v>0</v>
       </c>
+      <c r="Z48" s="4" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C49">
         <v>2019</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
-      </c>
-      <c r="F49" t="s">
-        <v>267</v>
+        <v>255</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
       </c>
-      <c r="H49" t="s">
-        <v>268</v>
+      <c r="H49" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
@@ -5600,28 +6026,31 @@
       <c r="Y49">
         <v>0</v>
       </c>
+      <c r="Z49" s="4" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="50" spans="1:26" ht="192" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="210" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C50">
         <v>2019</v>
       </c>
       <c r="D50" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F50" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -5675,33 +6104,33 @@
         <v>0</v>
       </c>
       <c r="Z50" s="4" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="256" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="255" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C51">
         <v>2015</v>
       </c>
       <c r="D51" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E51" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="F51" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="G51" t="s">
         <v>52</v>
       </c>
       <c r="H51" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -5755,33 +6184,33 @@
         <v>0</v>
       </c>
       <c r="Z51" s="4" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="208" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="210" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C52">
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="F52" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G52" t="s">
         <v>52</v>
       </c>
       <c r="H52" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -5835,33 +6264,33 @@
         <v>0</v>
       </c>
       <c r="Z52" s="4" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="288" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="300" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C53">
         <v>2015</v>
       </c>
       <c r="D53" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E53" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F53" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="I53" s="1">
         <v>0</v>
@@ -5915,33 +6344,33 @@
         <v>0</v>
       </c>
       <c r="Z53" s="4" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="192" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B54" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C54">
         <v>2018</v>
       </c>
       <c r="D54" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E54" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F54" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="I54" s="1">
         <v>0</v>
@@ -5995,33 +6424,33 @@
         <v>0</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:26" ht="272" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="270" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C55">
         <v>2016</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F55" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="G55" t="s">
         <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -6075,33 +6504,33 @@
         <v>0</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="240" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="270" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C56">
         <v>2022</v>
       </c>
       <c r="D56" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E56" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F56" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
       </c>
       <c r="H56" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -6155,33 +6584,33 @@
         <v>0</v>
       </c>
       <c r="Z56" s="4" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>298</v>
+    <row r="57" spans="1:26" ht="165" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C57">
         <v>2017</v>
       </c>
       <c r="D57" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
-      </c>
-      <c r="F57" t="s">
-        <v>302</v>
+        <v>289</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
       </c>
-      <c r="H57" t="s">
-        <v>303</v>
+      <c r="H57" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
@@ -6234,31 +6663,34 @@
       <c r="Y57">
         <v>0</v>
       </c>
+      <c r="Z57" s="4" t="s">
+        <v>390</v>
+      </c>
     </row>
-    <row r="58" spans="1:26" ht="335" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="360" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B58" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C58">
         <v>2017</v>
       </c>
       <c r="D58" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E58" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F58" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
       </c>
       <c r="H58" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -6312,33 +6744,33 @@
         <v>0</v>
       </c>
       <c r="Z58" s="4" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="335" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="315" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B59" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C59">
         <v>2017</v>
       </c>
       <c r="D59" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E59" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F59" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="G59" t="s">
         <v>30</v>
       </c>
       <c r="H59" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
@@ -6392,15 +6824,46 @@
         <v>0</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{B773311A-B221-42E6-B5D2-F02CD32D68F2}"/>
     <hyperlink ref="H5" r:id="rId2" xr:uid="{C8CC5530-2FD1-46C9-95C2-7F54C409E197}"/>
+    <hyperlink ref="H20" r:id="rId3" xr:uid="{BA49B916-4D16-48B7-AF96-E66ABE769F04}"/>
+    <hyperlink ref="H21" r:id="rId4" xr:uid="{2EC04603-A793-4BA4-ADDD-5A5B10D7F857}"/>
+    <hyperlink ref="H22" r:id="rId5" xr:uid="{26269607-A951-4CE9-BA7B-497BFF5E9C7D}"/>
+    <hyperlink ref="H23" r:id="rId6" xr:uid="{C0C84DEB-C5D2-4F91-8783-7DE19ED8B32A}"/>
+    <hyperlink ref="H24" r:id="rId7" xr:uid="{64E28FA8-43A9-44CD-AC4F-54E75D7B2834}"/>
+    <hyperlink ref="H25" r:id="rId8" xr:uid="{CED674AC-A4A9-458E-A144-0CA5E72FA886}"/>
+    <hyperlink ref="H26" r:id="rId9" xr:uid="{45EAE9CF-3AFD-4028-A9A0-D0CD5B12F916}"/>
+    <hyperlink ref="H27" r:id="rId10" xr:uid="{BD2E9FD8-066C-486E-AA00-7346A30A2E03}"/>
+    <hyperlink ref="H29" r:id="rId11" xr:uid="{D530B2DD-FA7E-47D4-AC39-ADB1B049551F}"/>
+    <hyperlink ref="H30" r:id="rId12" xr:uid="{582C67A6-60D5-4DF4-8DFA-96470F798703}"/>
+    <hyperlink ref="H31" r:id="rId13" xr:uid="{064BB706-2E78-4798-84DD-2DD4EDFC4DA6}"/>
+    <hyperlink ref="H32" r:id="rId14" xr:uid="{751C4654-9790-4223-80F2-22ED8980BDA8}"/>
+    <hyperlink ref="H33" r:id="rId15" xr:uid="{E4703A42-70B3-42EB-A6F4-FF0F7FC7CD37}"/>
+    <hyperlink ref="H34" r:id="rId16" xr:uid="{ABD9165F-1A4B-4BB0-BF50-217DE4423FE3}"/>
+    <hyperlink ref="H35" r:id="rId17" xr:uid="{BA3C0CCB-B152-4A25-ACF8-D60E57432FE5}"/>
+    <hyperlink ref="H36" r:id="rId18" xr:uid="{57A86632-AB95-44D5-ABA9-713830EF3775}"/>
+    <hyperlink ref="H37" r:id="rId19" xr:uid="{93EE628A-7EAF-4222-A356-857049E396E5}"/>
+    <hyperlink ref="H38" r:id="rId20" xr:uid="{65E0BEB0-D9CB-4539-9203-B968518D2C1E}"/>
+    <hyperlink ref="H39" r:id="rId21" xr:uid="{5C1E75F4-43DA-4881-9F6F-F05DC23C4AB6}"/>
+    <hyperlink ref="H40" r:id="rId22" xr:uid="{288A563B-F005-4941-BFCA-31435DA09EC6}"/>
+    <hyperlink ref="H41" r:id="rId23" xr:uid="{EBC6211F-08E3-42E7-A32D-06AC88958978}"/>
+    <hyperlink ref="H42" r:id="rId24" xr:uid="{6647B4F8-D83C-4358-B54B-D5B068D20FCC}"/>
+    <hyperlink ref="H43" r:id="rId25" xr:uid="{A70DCD7E-4636-4854-AEBD-8062807BEF4B}"/>
+    <hyperlink ref="H44" r:id="rId26" xr:uid="{ED727D25-7AF7-4802-8DBE-20E8AE56D87C}"/>
+    <hyperlink ref="H45" r:id="rId27" xr:uid="{E09E9854-8240-4C5A-A718-3979C811B985}"/>
+    <hyperlink ref="H46" r:id="rId28" xr:uid="{B6AEC1E4-1EEB-43DA-9251-E21D806AD832}"/>
+    <hyperlink ref="H47" r:id="rId29" xr:uid="{7B9EA901-B1EE-4571-9E16-49A82B0CE9DF}"/>
+    <hyperlink ref="H48" r:id="rId30" xr:uid="{ADEC8BBC-9315-47C2-8FD1-083BD4F9EBC0}"/>
+    <hyperlink ref="H49" r:id="rId31" xr:uid="{EACC888E-73CA-4636-9E07-2FCC42F9344E}"/>
+    <hyperlink ref="H19" r:id="rId32" xr:uid="{7BFF8F09-AF9A-4FD4-9E0E-507ADED4730E}"/>
+    <hyperlink ref="H57" r:id="rId33" location="page=240" xr:uid="{951BBBE9-51AB-4425-9EAE-650CBA7B8939}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId34"/>
 </worksheet>
 </file>